--- a/S2/R2.10 - Gestion de projet & des organisations/Organisation (compta)/C2/exercices.xlsx
+++ b/S2/R2.10 - Gestion de projet & des organisations/Organisation (compta)/C2/exercices.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +18,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+  <si>
+    <t>Débit(depot)</t>
+  </si>
+  <si>
+    <t>Crédit(retrait)</t>
+  </si>
+  <si>
+    <t>Débit</t>
+  </si>
+  <si>
+    <t>Crédit</t>
+  </si>
+  <si>
+    <t>512 Banque</t>
+  </si>
+  <si>
+    <t>101 Capital</t>
+  </si>
+  <si>
+    <t>2155 Machine outil</t>
+  </si>
+  <si>
+    <t>2110 Terrain</t>
+  </si>
+  <si>
+    <t>607 Achats Marchandises</t>
+  </si>
+  <si>
+    <t>707 Ventes Marchandises</t>
+  </si>
+  <si>
+    <t>6061 Achat Essence</t>
+  </si>
+  <si>
+    <t>Compte de résultat</t>
+  </si>
+  <si>
+    <t>Bilan</t>
+  </si>
+  <si>
+    <t>Charges (Depenses 6)</t>
+  </si>
+  <si>
+    <t>Produits (Recettes 7)</t>
+  </si>
+  <si>
+    <t>Actif (biens)</t>
+  </si>
+  <si>
+    <t>Passif (Dettes)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,14 +140,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -69,7 +256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +301,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +336,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +518,655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>100000</v>
+      </c>
+      <c r="B3" s="21">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="21">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>8000</v>
+      </c>
+      <c r="B4" s="21">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21">
+        <v>7000</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22">
+        <v>100</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="17">
+        <v>30000</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="17">
+        <v>7000</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="18">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="9"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <f>SUM(A3:A9)</f>
+        <v>108000</v>
+      </c>
+      <c r="B12" s="21">
+        <f>SUM(B3:B7)</f>
+        <v>51100</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="17">
+        <v>100</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f>G8+G9+D14</f>
+        <v>11100</v>
+      </c>
+      <c r="B20" s="9">
+        <f>K3+K4</f>
+        <v>8000</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <f>B20-A20</f>
+        <v>-3100</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/S2/R2.10 - Gestion de projet & des organisations/Organisation (compta)/C2/exercices.xlsx
+++ b/S2/R2.10 - Gestion de projet & des organisations/Organisation (compta)/C2/exercices.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="squelettes" sheetId="4" r:id="rId1"/>
     <sheet name="ex1" sheetId="1" r:id="rId2"/>
     <sheet name="ex2" sheetId="2" r:id="rId3"/>
     <sheet name="ex3" sheetId="3" r:id="rId4"/>
+    <sheet name="ex5" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="77">
   <si>
     <t>Débit(depot)</t>
   </si>
@@ -235,6 +236,27 @@
   </si>
   <si>
     <t>Passif (dettes)</t>
+  </si>
+  <si>
+    <t>44562 – TVA Immob</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44566 – TVA ABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44572 – TVA collectée</t>
+  </si>
+  <si>
+    <t>160 Emprunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a credit </t>
+  </si>
+  <si>
+    <t>fournisseur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">par banque </t>
   </si>
 </sst>
 </file>
@@ -461,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,24 +543,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,15 +592,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,12 +600,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,13 +621,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -657,6 +640,54 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers 2" xfId="1"/>
@@ -679,93 +710,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Application 1"/>
-      <sheetName val="Application 2"/>
-      <sheetName val="Application 3"/>
-      <sheetName val="Application5"/>
-      <sheetName val="Application 6"/>
+      <sheetName val="Feuil1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="62">
-          <cell r="C62">
-            <v>97270</v>
-          </cell>
-          <cell r="F62">
-            <v>80000</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>1000</v>
-          </cell>
-          <cell r="F63">
-            <v>30000</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>8000</v>
-          </cell>
-          <cell r="F64">
-            <v>5000</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>5000</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>130</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="31">
-          <cell r="J31">
-            <v>15000</v>
-          </cell>
-          <cell r="M31">
-            <v>50000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>500</v>
-          </cell>
-          <cell r="M32">
-            <v>50000</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>35000</v>
-          </cell>
-          <cell r="M33">
-            <v>50000</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>-3500</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>87750</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>-1500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1042,142 +990,142 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="81"/>
-    <col min="5" max="8" width="19.28515625" style="81" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="81"/>
-    <col min="10" max="13" width="20.7109375" style="81" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="81"/>
+    <col min="1" max="4" width="11.42578125" style="69"/>
+    <col min="5" max="8" width="19.28515625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="69"/>
+    <col min="10" max="13" width="20.7109375" style="69" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="69"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="E2" s="82" t="s">
+      <c r="C2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="J2" s="82" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="J2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="85" t="s">
+      <c r="C3" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82" t="s">
+      <c r="K3" s="83"/>
+      <c r="L3" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="82"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="F4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="J4" s="86" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="J4" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="73" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="K5" s="89"/>
-      <c r="M5" s="89"/>
+      <c r="B5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="K5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="M6" s="78"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
-      <c r="F7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="M7" s="91"/>
+      <c r="B7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="M8" s="91"/>
+      <c r="F8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="M9" s="91"/>
+      <c r="F9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="M10" s="91"/>
+      <c r="F10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="M10" s="78"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="M11" s="91"/>
+      <c r="F11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="K12" s="91"/>
-      <c r="M12" s="91"/>
+      <c r="F12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="M12" s="78"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="K13" s="91"/>
-      <c r="M13" s="91"/>
+      <c r="F13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="K13" s="78"/>
+      <c r="M13" s="78"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="K14" s="94"/>
-      <c r="M14" s="94"/>
+      <c r="F14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="K14" s="81"/>
+      <c r="M14" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1219,23 +1167,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="87"/>
+      <c r="G1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="87"/>
+      <c r="J1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -1325,15 +1273,15 @@
         <v>100</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="84"/>
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1418,10 +1366,10 @@
         <v>51100</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="16"/>
       <c r="I12" s="16"/>
     </row>
@@ -1485,15 +1433,15 @@
       <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1749,25 +1697,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="88"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -1857,20 +1805,20 @@
         <v>2200</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1956,15 +1904,15 @@
         <f>SUM(K8:K9)</f>
         <v>8800</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="34"/>
+      <c r="P10" s="85"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="34"/>
+      <c r="S10" s="85"/>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2006,20 +1954,20 @@
         <v>97270</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="88"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="88"/>
       <c r="O12" s="14">
         <f>J3</f>
         <v>100</v>
@@ -2028,13 +1976,13 @@
         <f>K10</f>
         <v>8800</v>
       </c>
-      <c r="R12" s="14">
-        <f>'[1]Application 2'!C62</f>
-        <v>97270</v>
-      </c>
-      <c r="S12" s="26">
-        <f>'[1]Application 2'!F62</f>
-        <v>80000</v>
+      <c r="R12" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S12" s="26" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2066,13 +2014,13 @@
         <v>12200</v>
       </c>
       <c r="P13" s="26"/>
-      <c r="R13" s="17">
-        <f>'[1]Application 2'!C63</f>
-        <v>1000</v>
-      </c>
-      <c r="S13" s="26">
-        <f>'[1]Application 2'!F63</f>
-        <v>30000</v>
+      <c r="R13" s="17" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S13" s="26" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2098,13 +2046,13 @@
         <v>80</v>
       </c>
       <c r="P14" s="26"/>
-      <c r="R14" s="17">
-        <f>'[1]Application 2'!C64</f>
-        <v>8000</v>
-      </c>
-      <c r="S14" s="26">
-        <f>'[1]Application 2'!F64</f>
-        <v>5000</v>
+      <c r="R14" s="17" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S14" s="26" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2126,9 +2074,9 @@
         <v>20</v>
       </c>
       <c r="P15" s="26"/>
-      <c r="R15" s="17">
-        <f>'[1]Application 2'!C65</f>
-        <v>5000</v>
+      <c r="R15" s="17" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="S15" s="26"/>
     </row>
@@ -2151,9 +2099,9 @@
       <c r="K16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
-      <c r="R16" s="17">
-        <f>'[1]Application 2'!C66</f>
-        <v>130</v>
+      <c r="R16" s="17" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="S16" s="26"/>
     </row>
@@ -2161,20 +2109,20 @@
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="88"/>
       <c r="N17" s="28" t="s">
         <v>29</v>
       </c>
@@ -2186,13 +2134,13 @@
         <f>P12</f>
         <v>8800</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="29" t="e">
         <f>SUM(R12:R16)</f>
-        <v>111400</v>
-      </c>
-      <c r="S17" s="29">
+        <v>#REF!</v>
+      </c>
+      <c r="S17" s="29" t="e">
         <f>SUM(S12:S16)</f>
-        <v>115000</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2228,9 +2176,9 @@
         <v>3600</v>
       </c>
       <c r="R18" s="29"/>
-      <c r="S18" s="31">
+      <c r="S18" s="31" t="e">
         <f>R17-S17</f>
-        <v>-3600</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2262,9 +2210,9 @@
         <v>12400</v>
       </c>
       <c r="R19" s="29"/>
-      <c r="S19" s="29">
+      <c r="S19" s="29" t="e">
         <f>SUM(S17:S18)</f>
-        <v>111400</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -2355,11 +2303,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="J17:K17"/>
@@ -2370,6 +2313,11 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2379,888 +2327,876 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="40"/>
-    <col min="10" max="10" width="16.28515625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="40" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="40" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="14.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="34"/>
+    <col min="10" max="10" width="16.28515625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="34" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="34" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="92"/>
+      <c r="G1" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="H1" s="92"/>
+      <c r="J1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="K1" s="92"/>
+      <c r="M1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="92"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="44" t="s">
+      <c r="A2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="39">
         <v>50000</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="40">
         <v>15000</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48">
+      <c r="C3" s="37"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42">
         <v>50000</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="41">
         <v>15000</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="J3" s="49">
+      <c r="H3" s="42"/>
+      <c r="J3" s="43">
         <v>500</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51">
+      <c r="M3" s="44"/>
+      <c r="N3" s="45">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
+      <c r="A4" s="46">
         <v>10000</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="47">
         <v>10000</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="48"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="48"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="48"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="48"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="42"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="42"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="55">
+      <c r="A5" s="49">
         <v>8000</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="47">
         <v>5000</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="46">
         <v>50000</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="47">
         <v>250</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="G6" s="38" t="s">
+      <c r="E6" s="92"/>
+      <c r="G6" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="J6" s="38" t="s">
+      <c r="H6" s="92"/>
+      <c r="J6" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38" t="s">
+      <c r="K6" s="92"/>
+      <c r="M6" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="42" t="s">
+      <c r="A7" s="46"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="47">
+      <c r="A8" s="46"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="41">
         <v>35000</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48">
+      <c r="E8" s="42"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42">
         <v>50000</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48">
+      <c r="J8" s="41"/>
+      <c r="K8" s="42">
         <v>10000</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="41">
         <v>1500</v>
       </c>
-      <c r="N8" s="48"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="48"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="48"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="48">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="42"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="42">
         <v>8000</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="48">
         <v>3500</v>
       </c>
-      <c r="N9" s="48"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+      <c r="A12" s="51">
         <f>SUM(A3,A4,A5,A6,A7,A8,A9,A10,A11)</f>
         <v>118000</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="51">
         <f>SUM(B3:B11)</f>
         <v>30250</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="G12" s="38" t="s">
+      <c r="E12" s="92"/>
+      <c r="G12" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="J12" s="38" t="s">
+      <c r="H12" s="92"/>
+      <c r="J12" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="M12" s="38" t="s">
+      <c r="K12" s="92"/>
+      <c r="M12" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="38"/>
+      <c r="N12" s="92"/>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="53"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="42" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="53">
+      <c r="A14" s="37"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="47">
         <v>35000</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="41">
         <v>8000</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="42">
         <v>8000</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="41">
         <v>15000</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48">
+      <c r="K14" s="42"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42">
         <v>3500</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="40">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="34">
         <v>15000</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="48"/>
-      <c r="J15" s="54">
+      <c r="G15" s="48"/>
+      <c r="H15" s="42"/>
+      <c r="J15" s="48">
         <v>5000</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="M15" s="54"/>
+      <c r="K15" s="42"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="J16" s="52">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="J16" s="46">
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="G17" s="38" t="s">
+      <c r="E17" s="92"/>
+      <c r="G17" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="D18" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="38" t="s">
+      <c r="D18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="38"/>
+      <c r="N18" s="92"/>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="D19" s="47">
+      <c r="D19" s="41">
         <v>250</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="G19" s="59">
+      <c r="E19" s="42"/>
+      <c r="G19" s="53">
         <v>5000</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="47">
         <v>5000</v>
       </c>
-      <c r="M19" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="42" t="s">
+      <c r="M19" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D20" s="54"/>
-      <c r="E20" s="48"/>
-      <c r="G20" s="52"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48">
+      <c r="D20" s="48"/>
+      <c r="E20" s="42"/>
+      <c r="G20" s="46"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42">
         <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D21" s="54"/>
-      <c r="E21" s="48"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="42"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="D23" s="61"/>
-      <c r="E23" s="44"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="44"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="44"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="38"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="38"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D24" s="43"/>
-      <c r="E24" s="58"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="58"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="58"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="52"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="52"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="52"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D25" s="43"/>
-      <c r="E25" s="58"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="58"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="58"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="52"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="52"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="95"/>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67" t="s">
+      <c r="D29" s="89"/>
+      <c r="E29" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="67"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="65"/>
-      <c r="C30" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="65" t="s">
+      <c r="B30" s="56"/>
+      <c r="C30" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="69" t="s">
+      <c r="K30" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="69"/>
-      <c r="N30" s="69" t="s">
+      <c r="L30" s="91"/>
+      <c r="N30" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="O30" s="69"/>
+      <c r="O30" s="91"/>
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="59">
         <v>101</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61">
         <v>50000</v>
       </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="72">
+      <c r="E31" s="62"/>
+      <c r="F31" s="61">
         <v>50000</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="K31" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="N31" s="74" t="s">
+      <c r="N31" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="O31" s="74" t="s">
+      <c r="O31" s="63" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="70">
+      <c r="A32" s="59">
         <v>164</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72">
+      <c r="C32" s="61"/>
+      <c r="D32" s="61">
         <v>50000</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="72">
+      <c r="E32" s="62"/>
+      <c r="F32" s="61">
         <v>50000</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="39">
         <v>30000</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="34">
         <f>SUM(K8:K9)</f>
         <v>18000</v>
       </c>
-      <c r="N32" s="45">
-        <f>'[1]Application 3'!J31</f>
-        <v>15000</v>
-      </c>
-      <c r="O32" s="40">
-        <f>'[1]Application 3'!M31</f>
+      <c r="N32" s="39" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O32" s="34" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="59">
+        <v>370</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61">
+        <v>500</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="61">
+        <v>500</v>
+      </c>
+      <c r="K33" s="48">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="46" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O33" s="34" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="59">
+        <v>401</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="61">
+        <v>5000</v>
+      </c>
+      <c r="D34" s="61">
+        <v>5000</v>
+      </c>
+      <c r="E34" s="62"/>
+      <c r="F34" s="61"/>
+      <c r="K34" s="48">
+        <v>250</v>
+      </c>
+      <c r="N34" s="46" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O34" s="34" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="59">
+        <v>404</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61">
         <v>50000</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="70">
-        <v>370</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72">
+      <c r="E35" s="62"/>
+      <c r="F35" s="61">
+        <v>50000</v>
+      </c>
+      <c r="K35" s="48">
+        <v>5000</v>
+      </c>
+      <c r="N35" s="46" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="59">
+        <v>411</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="61">
+        <v>8000</v>
+      </c>
+      <c r="D36" s="61">
+        <v>8000</v>
+      </c>
+      <c r="E36" s="62"/>
+      <c r="F36" s="61"/>
+      <c r="K36" s="64"/>
+      <c r="N36" s="46" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="59">
+        <v>603</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="61">
         <v>500</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="72">
+      <c r="D37" s="61"/>
+      <c r="E37" s="62">
         <v>500</v>
       </c>
-      <c r="K33" s="54">
-        <v>-500</v>
-      </c>
-      <c r="N33" s="52">
-        <f>'[1]Application 3'!J32</f>
-        <v>500</v>
-      </c>
-      <c r="O33" s="40">
-        <f>'[1]Application 3'!M32</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="70">
-        <v>401</v>
-      </c>
-      <c r="B34" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="72">
-        <v>5000</v>
-      </c>
-      <c r="D34" s="72">
-        <v>5000</v>
-      </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="72"/>
-      <c r="K34" s="54">
+      <c r="F37" s="61"/>
+      <c r="K37" s="46"/>
+      <c r="N37" s="46" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="59">
+        <v>607</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="61">
+        <v>30000</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62">
+        <v>30000</v>
+      </c>
+      <c r="F38" s="61"/>
+      <c r="K38" s="46"/>
+      <c r="N38" s="46"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="59">
+        <v>626</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="61">
         <v>250</v>
       </c>
-      <c r="N34" s="52">
-        <f>'[1]Application 3'!J33</f>
-        <v>35000</v>
-      </c>
-      <c r="O34" s="40">
-        <f>'[1]Application 3'!M33</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="70">
-        <v>404</v>
-      </c>
-      <c r="B35" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72">
-        <v>50000</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="72">
-        <v>50000</v>
-      </c>
-      <c r="K35" s="54">
-        <v>5000</v>
-      </c>
-      <c r="N35" s="52">
-        <f>'[1]Application 3'!J34</f>
-        <v>-3500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="70">
-        <v>411</v>
-      </c>
-      <c r="B36" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="72">
-        <v>8000</v>
-      </c>
-      <c r="D36" s="72">
-        <v>8000</v>
-      </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="72"/>
-      <c r="K36" s="75"/>
-      <c r="N36" s="52">
-        <f>'[1]Application 3'!J35</f>
-        <v>87750</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="70">
-        <v>603</v>
-      </c>
-      <c r="B37" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="72">
-        <v>500</v>
-      </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73">
-        <v>500</v>
-      </c>
-      <c r="F37" s="72"/>
-      <c r="K37" s="52"/>
-      <c r="N37" s="52">
-        <f>'[1]Application 3'!J36</f>
-        <v>-1500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="70">
-        <v>607</v>
-      </c>
-      <c r="B38" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="72">
-        <v>30000</v>
-      </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73">
-        <v>30000</v>
-      </c>
-      <c r="F38" s="72"/>
-      <c r="K38" s="52"/>
-      <c r="N38" s="52"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="70">
-        <v>626</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="72">
+      <c r="D39" s="61"/>
+      <c r="E39" s="62">
         <v>250</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73">
-        <v>250</v>
-      </c>
-      <c r="F39" s="72"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="70">
+      <c r="A40" s="59">
         <v>707</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72">
+      <c r="C40" s="61"/>
+      <c r="D40" s="61">
         <v>18000</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="72">
+      <c r="E40" s="62"/>
+      <c r="F40" s="61">
         <v>18000</v>
       </c>
-      <c r="J40" s="71" t="s">
+      <c r="J40" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K40" s="71">
+      <c r="K40" s="60">
         <f>SUM(K32:K37)</f>
         <v>34750</v>
       </c>
-      <c r="L40" s="71">
+      <c r="L40" s="60">
         <f>L32</f>
         <v>18000</v>
       </c>
-      <c r="N40" s="71">
+      <c r="N40" s="60" t="e">
         <f>SUM(N32:N37)</f>
-        <v>133250</v>
-      </c>
-      <c r="O40" s="71">
+        <v>#REF!</v>
+      </c>
+      <c r="O40" s="60" t="e">
         <f>SUM(O32:O36)</f>
-        <v>150000</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="70">
+      <c r="A41" s="59">
         <v>2155</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="61">
         <v>15000</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73">
+      <c r="D41" s="61"/>
+      <c r="E41" s="62">
         <v>15000</v>
       </c>
-      <c r="F41" s="72"/>
-      <c r="J41" s="76" t="s">
+      <c r="F41" s="61"/>
+      <c r="J41" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76">
+      <c r="K41" s="65"/>
+      <c r="L41" s="65">
         <f>K40-L40</f>
         <v>16750</v>
       </c>
-      <c r="N41" s="71"/>
-      <c r="O41" s="76">
+      <c r="N41" s="60"/>
+      <c r="O41" s="65" t="e">
         <f>N40-O40</f>
-        <v>-16750</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="70">
+      <c r="A42" s="59">
         <v>2182</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="61">
         <v>35000</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="61">
         <v>35000</v>
       </c>
-      <c r="F42" s="72"/>
-      <c r="J42" s="71" t="s">
+      <c r="F42" s="61"/>
+      <c r="J42" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71">
+      <c r="K42" s="60"/>
+      <c r="L42" s="60">
         <f>L40+L41</f>
         <v>34750</v>
       </c>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71">
+      <c r="N42" s="60"/>
+      <c r="O42" s="60" t="e">
         <f>SUM(O40:O41)</f>
-        <v>133250</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="70">
+      <c r="A43" s="59">
         <v>6081</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="61">
         <v>5000</v>
       </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73">
+      <c r="D43" s="61"/>
+      <c r="E43" s="62">
         <v>5000</v>
       </c>
-      <c r="F43" s="72"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="70">
+      <c r="A44" s="59">
         <v>28182</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72">
+      <c r="C44" s="61"/>
+      <c r="D44" s="61">
         <v>3500</v>
       </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="72">
+      <c r="E44" s="62"/>
+      <c r="F44" s="61">
         <v>3500</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="70">
+      <c r="A45" s="59">
         <v>282155</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72">
+      <c r="C45" s="61"/>
+      <c r="D45" s="61">
         <v>1500</v>
       </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="72">
+      <c r="E45" s="62"/>
+      <c r="F45" s="61">
         <v>1500</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="77">
+      <c r="A46" s="66">
         <v>505</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="61">
         <v>118000</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="61">
         <v>30250</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="62">
         <v>87750</v>
       </c>
-      <c r="F46" s="72"/>
+      <c r="F46" s="61"/>
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="78" t="s">
+      <c r="A47" s="60"/>
+      <c r="B47" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="79">
+      <c r="C47" s="68">
         <f>SUM(C31:C46)</f>
         <v>216750</v>
       </c>
-      <c r="D47" s="79">
+      <c r="D47" s="68">
         <f t="shared" ref="D47:F47" si="0">SUM(D31:D46)</f>
         <v>216750</v>
       </c>
-      <c r="E47" s="79">
+      <c r="E47" s="68">
         <f t="shared" si="0"/>
         <v>173500</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="68">
         <f t="shared" si="0"/>
         <v>173500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
@@ -3270,6 +3206,823 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="M18:N18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="34" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="G1" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="J1" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="92"/>
+      <c r="M1" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="92"/>
+      <c r="P1" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="92"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="39">
+        <v>20000</v>
+      </c>
+      <c r="B3" s="40">
+        <f>1000*1.2</f>
+        <v>1200</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="41">
+        <v>15000</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="P3" s="41">
+        <f>E14-G3</f>
+        <v>3000</v>
+      </c>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="46">
+        <v>20000</v>
+      </c>
+      <c r="B4" s="47">
+        <f>250*1.2</f>
+        <v>300</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="42"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="42"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="42"/>
+      <c r="P4" s="48">
+        <v>1600</v>
+      </c>
+      <c r="Q4" s="42"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="49">
+        <f>3000*1.2</f>
+        <v>3600</v>
+      </c>
+      <c r="B5" s="47">
+        <v>8000</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="42"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="92"/>
+      <c r="G6" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="J6" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="92"/>
+      <c r="M6" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="92"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="41">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42">
+        <v>20000</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42">
+        <v>3000</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="P8" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="92"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="42"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="42">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="42"/>
+      <c r="P9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="P10" s="41">
+        <f>B3-J14</f>
+        <v>200</v>
+      </c>
+      <c r="Q10" s="42"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="P11" s="48">
+        <f>H19-J15</f>
+        <v>400</v>
+      </c>
+      <c r="Q11" s="42"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <f>SUM(A3:A11)</f>
+        <v>44600</v>
+      </c>
+      <c r="B12" s="51">
+        <f>SUM(B3:B11)</f>
+        <v>9500</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="G12" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="J12" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="M12" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="92"/>
+      <c r="P12" s="48">
+        <f>B4-D20</f>
+        <v>50</v>
+      </c>
+      <c r="Q12" s="42"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="47"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="39">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="47">
+        <f>15000*1.2</f>
+        <v>18000</v>
+      </c>
+      <c r="G14" s="41">
+        <f>2000*1.2</f>
+        <v>2400</v>
+      </c>
+      <c r="H14" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="41">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="34">
+        <f>8000*1.2</f>
+        <v>9600</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="42"/>
+      <c r="J15" s="48">
+        <v>2000</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="M15" s="48"/>
+      <c r="P15" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="92"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="J16" s="46"/>
+      <c r="P16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="G17" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="92"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42">
+        <f>A5-K8</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="92"/>
+      <c r="G18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="92"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="42">
+        <f>G14-K9</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="D19" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="47">
+        <f>2000*1.2</f>
+        <v>2400</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="42"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D20" s="41">
+        <v>250</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="G20" s="46"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="42"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="42"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="D23" s="55"/>
+      <c r="E23" s="38"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="38"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D24" s="37"/>
+      <c r="E24" s="52"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="52"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D25" s="37"/>
+      <c r="E25" s="52"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="52"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="95"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="90"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="57"/>
+      <c r="C30" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="91"/>
+      <c r="N30" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="91"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="96"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="61"/>
+      <c r="K31" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="96"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="61"/>
+      <c r="K32" s="39"/>
+      <c r="N32" s="39"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="96"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="61"/>
+      <c r="K33" s="48"/>
+      <c r="N33" s="46"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="96"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="61"/>
+      <c r="K34" s="48"/>
+      <c r="N34" s="46"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="96"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="61"/>
+      <c r="K35" s="48"/>
+      <c r="N35" s="46"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="96"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="61"/>
+      <c r="K36" s="64"/>
+      <c r="N36" s="46"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="96"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="61"/>
+      <c r="K37" s="46"/>
+      <c r="N37" s="46"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="96"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="61"/>
+      <c r="K38" s="46"/>
+      <c r="N38" s="46"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="96"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="96"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="61"/>
+      <c r="J40" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="60">
+        <f>SUM(K32:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="60">
+        <f>L32</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="60">
+        <f>SUM(N32:N37)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="60">
+        <f>SUM(O32:O36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="96"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="61"/>
+      <c r="J41" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65">
+        <f>K40-L40</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="60"/>
+      <c r="O41" s="65">
+        <f>N40-O40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="96"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="J42" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60">
+        <f>L40+L41</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60">
+        <f>SUM(O40:O41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="96"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="61"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="96"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="61"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="96"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="61"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="97"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="61"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="68">
+        <f>SUM(C31:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="68">
+        <f t="shared" ref="D47:F47" si="0">SUM(D31:D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
